--- a/Gestion_de_Cursos/Archivos_exportados/2024/2-2024/reportes_estadisticos/POSGRADO/reporte_(Version_2).xlsx
+++ b/Gestion_de_Cursos/Archivos_exportados/2024/2-2024/reportes_estadisticos/POSGRADO/reporte_(Version_2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>NO.</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MARITZA FLORES SARABIA</t>
+  </si>
+  <si>
+    <t>JEFE DEL DEPARTAMENTO DE DESARROLLO ACADEMICO</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +96,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -180,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,6 +247,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,11 +573,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.25" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="8.375" collapsed="true" bestFit="true"/>
     <col min="2" max="2" customWidth="true" width="4.4296875" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" width="22.41796875" collapsed="true" bestFit="true"/>
-    <col min="5" max="5" customWidth="true" width="11.72265625" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" width="23.43359375" collapsed="true" bestFit="true"/>
+    <col min="5" max="5" customWidth="true" width="31.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -615,63 +653,68 @@
         <v>4.0</v>
       </c>
       <c r="E11" t="n" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" t="n" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="8"/>
+      <c r="B12" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>13</v>
+      </c>
       <c r="D12" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="E12" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="n" s="8">
         <v>3.0</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E13" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="F13" t="n" s="8">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="14">
-      <c r="B14" t="n" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="D14" t="n" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="E14" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n" s="8">
+      <c r="D14" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n" s="13">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="E15" t="n" s="13">
+      <c r="F14" t="n" s="14">
         <v>2.0</v>
       </c>
-      <c r="F15" t="n" s="14">
-        <v>2.0</v>
-      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="E19" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -680,18 +723,8 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
